--- a/subtable/按分量制拆分的子表/型/U35高级组男子个人型.xlsx
+++ b/subtable/按分量制拆分的子表/型/U35高级组男子个人型.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>赢的次数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>分量制</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>型</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>无差</t>
         </is>
@@ -491,23 +496,26 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>310112200612037219</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>79.2kg</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,27 +533,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>622701199401061633</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>67KG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>U35男子高级组+65KG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,27 +574,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>320705198901190034</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>82KG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>U35男子高级组+85KG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,27 +615,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>320705200404031059</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>65KG</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>U35男子高级组+60KG</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -639,23 +656,26 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>130983199109205510</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>70KG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -673,27 +693,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>210106200011164916</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>66.7KG</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>U35男子高级组+65KG</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>成人男子组无差</t>
         </is>
@@ -715,27 +738,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>320324199412075950</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>66KG</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>U35男子高级组+65KG</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>U35高级组男子个人型</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
